--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Inhbb</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Inhbb</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H2">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I2">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J2">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N2">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O2">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P2">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q2">
-        <v>13.00427437808033</v>
+        <v>9.82503448304</v>
       </c>
       <c r="R2">
-        <v>117.038469402723</v>
+        <v>88.42531034736</v>
       </c>
       <c r="S2">
-        <v>0.08942254331585486</v>
+        <v>0.0731097518115197</v>
       </c>
       <c r="T2">
-        <v>0.105772831700389</v>
+        <v>0.0858380336426242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H3">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I3">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J3">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P3">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q3">
-        <v>31.44170969599734</v>
+        <v>27.82849645128</v>
       </c>
       <c r="R3">
-        <v>282.975387263976</v>
+        <v>250.45646806152</v>
       </c>
       <c r="S3">
-        <v>0.2162056540389528</v>
+        <v>0.2070765728459128</v>
       </c>
       <c r="T3">
-        <v>0.2557373499941598</v>
+        <v>0.2431282474104366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H4">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I4">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J4">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N4">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O4">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P4">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q4">
-        <v>7.040044436669444</v>
+        <v>8.8273918523</v>
       </c>
       <c r="R4">
-        <v>63.360399930025</v>
+        <v>79.4465266707</v>
       </c>
       <c r="S4">
-        <v>0.04841013502796821</v>
+        <v>0.06568612340025075</v>
       </c>
       <c r="T4">
-        <v>0.05726159059041785</v>
+        <v>0.07712196431496934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H5">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I5">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J5">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N5">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O5">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P5">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q5">
-        <v>15.8594408538995</v>
+        <v>18.68852853441</v>
       </c>
       <c r="R5">
-        <v>95.15664512339703</v>
+        <v>112.13117120646</v>
       </c>
       <c r="S5">
-        <v>0.1090557993080747</v>
+        <v>0.1390645178123042</v>
       </c>
       <c r="T5">
-        <v>0.0859972610815478</v>
+        <v>0.1088502738480276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H6">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I6">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J6">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N6">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O6">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P6">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q6">
-        <v>7.959809792470556</v>
+        <v>8.13562184099</v>
       </c>
       <c r="R6">
-        <v>71.638288132235</v>
+        <v>73.22059656891</v>
       </c>
       <c r="S6">
-        <v>0.05473480605368743</v>
+        <v>0.06053854514748947</v>
       </c>
       <c r="T6">
-        <v>0.06474268360295707</v>
+        <v>0.07107820155705856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.905203</v>
       </c>
       <c r="I7">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J7">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N7">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O7">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P7">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q7">
-        <v>5.211454817207668</v>
+        <v>4.448599893100445</v>
       </c>
       <c r="R7">
-        <v>46.903093354869</v>
+        <v>40.037399037904</v>
       </c>
       <c r="S7">
-        <v>0.0358360282612836</v>
+        <v>0.03310278805176205</v>
       </c>
       <c r="T7">
-        <v>0.04238839609719613</v>
+        <v>0.03886592641946412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.905203</v>
       </c>
       <c r="I8">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J8">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>59.522376</v>
       </c>
       <c r="O8">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P8">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q8">
         <v>12.60024548025867</v>
@@ -948,10 +948,10 @@
         <v>113.402209322328</v>
       </c>
       <c r="S8">
-        <v>0.08664428052579765</v>
+        <v>0.09376056861847289</v>
       </c>
       <c r="T8">
-        <v>0.102486582935643</v>
+        <v>0.1100841220768022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>1.905203</v>
       </c>
       <c r="I9">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J9">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N9">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O9">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P9">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q9">
-        <v>2.821293401397222</v>
+        <v>3.996885152747778</v>
       </c>
       <c r="R9">
-        <v>25.391640612575</v>
+        <v>35.97196637473</v>
       </c>
       <c r="S9">
-        <v>0.01940033131094399</v>
+        <v>0.02974150187879279</v>
       </c>
       <c r="T9">
-        <v>0.02294754658717513</v>
+        <v>0.03491944611487142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>1.905203</v>
       </c>
       <c r="I10">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J10">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N10">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O10">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P10">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q10">
-        <v>6.355660995248501</v>
+        <v>8.461831475899</v>
       </c>
       <c r="R10">
-        <v>38.13396597149101</v>
+        <v>50.770988855394</v>
       </c>
       <c r="S10">
-        <v>0.0437040433110575</v>
+        <v>0.06296592649540148</v>
       </c>
       <c r="T10">
-        <v>0.03446334854988316</v>
+        <v>0.04928545721037123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>1.905203</v>
       </c>
       <c r="I11">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J11">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N11">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O11">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P11">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q11">
-        <v>3.189888792022778</v>
+        <v>3.683664063938778</v>
       </c>
       <c r="R11">
-        <v>28.708999128205</v>
+        <v>33.152976575449</v>
       </c>
       <c r="S11">
-        <v>0.02193493926567893</v>
+        <v>0.02741077051042058</v>
       </c>
       <c r="T11">
-        <v>0.02594558992928518</v>
+        <v>0.03218293843083454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H12">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I12">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J12">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N12">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O12">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P12">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q12">
-        <v>0.06036163781566667</v>
+        <v>3.738236522909333</v>
       </c>
       <c r="R12">
-        <v>0.543254740341</v>
+        <v>22.429419137456</v>
       </c>
       <c r="S12">
-        <v>0.0004150705387519048</v>
+        <v>0.0278168534547572</v>
       </c>
       <c r="T12">
-        <v>0.0004909632919310052</v>
+        <v>0.02177314647743216</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H13">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I13">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J13">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>59.522376</v>
       </c>
       <c r="O13">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P13">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q13">
-        <v>0.1459422523546667</v>
+        <v>10.588207297532</v>
       </c>
       <c r="R13">
-        <v>1.313480271192</v>
+        <v>63.52924378519201</v>
       </c>
       <c r="S13">
-        <v>0.001003556753985153</v>
+        <v>0.07878865046099756</v>
       </c>
       <c r="T13">
-        <v>0.001187050107332832</v>
+        <v>0.06167041250861265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H14">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I14">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J14">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N14">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O14">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P14">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q14">
-        <v>0.03267761046388888</v>
+        <v>3.358652703078334</v>
       </c>
       <c r="R14">
-        <v>0.2940984941749999</v>
+        <v>20.15191621847</v>
       </c>
       <c r="S14">
-        <v>0.0002247041974207478</v>
+        <v>0.0249923057234065</v>
       </c>
       <c r="T14">
-        <v>0.0002657897927618178</v>
+        <v>0.01956228206074955</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H15">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I15">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J15">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N15">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O15">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P15">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q15">
-        <v>0.07361439761650002</v>
+        <v>7.110625417891501</v>
       </c>
       <c r="R15">
-        <v>0.441686385699</v>
+        <v>28.442501671566</v>
       </c>
       <c r="S15">
-        <v>0.0005062017662921514</v>
+        <v>0.05291137251722711</v>
       </c>
       <c r="T15">
-        <v>0.0003991714858995455</v>
+        <v>0.0276102894722514</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H16">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I16">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J16">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N16">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O16">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P16">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q16">
-        <v>0.03694686391611111</v>
+        <v>3.095447527951833</v>
       </c>
       <c r="R16">
-        <v>0.332521775245</v>
+        <v>18.572685167711</v>
       </c>
       <c r="S16">
-        <v>0.0002540612757673261</v>
+        <v>0.02303375127128492</v>
       </c>
       <c r="T16">
-        <v>0.0003005146081386267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.833154</v>
-      </c>
-      <c r="H17">
-        <v>1.666308</v>
-      </c>
-      <c r="I17">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J17">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>8.206141000000001</v>
-      </c>
-      <c r="N17">
-        <v>24.618423</v>
-      </c>
-      <c r="O17">
-        <v>0.1726874201070044</v>
-      </c>
-      <c r="P17">
-        <v>0.185725470694853</v>
-      </c>
-      <c r="Q17">
-        <v>6.836979198714</v>
-      </c>
-      <c r="R17">
-        <v>41.021875192284</v>
-      </c>
-      <c r="S17">
-        <v>0.04701377799111403</v>
-      </c>
-      <c r="T17">
-        <v>0.0370732796053369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.833154</v>
-      </c>
-      <c r="H18">
-        <v>1.666308</v>
-      </c>
-      <c r="I18">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J18">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>19.840792</v>
-      </c>
-      <c r="N18">
-        <v>59.522376</v>
-      </c>
-      <c r="O18">
-        <v>0.4175233137426827</v>
-      </c>
-      <c r="P18">
-        <v>0.4490466874939968</v>
-      </c>
-      <c r="Q18">
-        <v>16.530435217968</v>
-      </c>
-      <c r="R18">
-        <v>99.182611307808</v>
-      </c>
-      <c r="S18">
-        <v>0.113669822423947</v>
-      </c>
-      <c r="T18">
-        <v>0.08963570445686123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.833154</v>
-      </c>
-      <c r="H19">
-        <v>1.666308</v>
-      </c>
-      <c r="I19">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J19">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.442508333333333</v>
-      </c>
-      <c r="N19">
-        <v>13.327525</v>
-      </c>
-      <c r="O19">
-        <v>0.09348673181306549</v>
-      </c>
-      <c r="P19">
-        <v>0.100545061469714</v>
-      </c>
-      <c r="Q19">
-        <v>3.701293587949999</v>
-      </c>
-      <c r="R19">
-        <v>22.20776152769999</v>
-      </c>
-      <c r="S19">
-        <v>0.02545156127673254</v>
-      </c>
-      <c r="T19">
-        <v>0.02007013449935918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.833154</v>
-      </c>
-      <c r="H20">
-        <v>1.666308</v>
-      </c>
-      <c r="I20">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J20">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.0078485</v>
-      </c>
-      <c r="N20">
-        <v>20.015697</v>
-      </c>
-      <c r="O20">
-        <v>0.2106019794549903</v>
-      </c>
-      <c r="P20">
-        <v>0.1510017415254648</v>
-      </c>
-      <c r="Q20">
-        <v>8.338079009169</v>
-      </c>
-      <c r="R20">
-        <v>33.352316036676</v>
-      </c>
-      <c r="S20">
-        <v>0.05733593506956602</v>
-      </c>
-      <c r="T20">
-        <v>0.03014196040813431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.833154</v>
-      </c>
-      <c r="H21">
-        <v>1.666308</v>
-      </c>
-      <c r="I21">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J21">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.022911666666666</v>
-      </c>
-      <c r="N21">
-        <v>15.068735</v>
-      </c>
-      <c r="O21">
-        <v>0.1057005548822571</v>
-      </c>
-      <c r="P21">
-        <v>0.1136810388159715</v>
-      </c>
-      <c r="Q21">
-        <v>4.184858946729999</v>
-      </c>
-      <c r="R21">
-        <v>25.10915368038</v>
-      </c>
-      <c r="S21">
-        <v>0.02877674828712341</v>
-      </c>
-      <c r="T21">
-        <v>0.02269225067559065</v>
+        <v>0.01802925845549426</v>
       </c>
     </row>
   </sheetData>
